--- a/AAII_Financials/Quarterly/AVTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>AVTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E8" s="3">
         <v>666500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>256900</v>
       </c>
-      <c r="G8" s="3">
-        <v>307600</v>
-      </c>
       <c r="H8" s="3">
+        <v>166400</v>
+      </c>
+      <c r="I8" s="3">
         <v>658200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>174200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>254300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>278400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E9" s="3">
         <v>444900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120500</v>
       </c>
-      <c r="G9" s="3">
-        <v>129300</v>
-      </c>
       <c r="H9" s="3">
+        <v>130600</v>
+      </c>
+      <c r="I9" s="3">
         <v>469700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>123000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>118300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>114200</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E10" s="3">
         <v>221600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>136400</v>
       </c>
-      <c r="G10" s="3">
-        <v>178300</v>
-      </c>
       <c r="H10" s="3">
+        <v>35800</v>
+      </c>
+      <c r="I10" s="3">
         <v>188500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>51200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>136000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>8700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8600</v>
       </c>
-      <c r="G12" s="3">
-        <v>8500</v>
-      </c>
       <c r="H12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I12" s="3">
         <v>16700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>32800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E15" s="3">
         <v>37700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>10200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>9600</v>
       </c>
       <c r="G15" s="3">
         <v>9600</v>
       </c>
       <c r="H15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="I15" s="3">
         <v>37300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E17" s="3">
         <v>677800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>185500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>206100</v>
       </c>
-      <c r="G17" s="3">
-        <v>262500</v>
-      </c>
       <c r="H17" s="3">
+        <v>179800</v>
+      </c>
+      <c r="I17" s="3">
         <v>711300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>212700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50800</v>
       </c>
-      <c r="G18" s="3">
-        <v>45100</v>
-      </c>
       <c r="H18" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-53100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>41600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E21" s="3">
         <v>26100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-2000</v>
       </c>
-      <c r="F21" s="3">
-        <v>61800</v>
-      </c>
       <c r="G21" s="3">
-        <v>56000</v>
+        <v>64000</v>
       </c>
       <c r="H21" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-15800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="G22" s="3">
-        <v>7500</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>7700</v>
       </c>
       <c r="J22" s="3">
         <v>7700</v>
       </c>
       <c r="K22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-23600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42700</v>
       </c>
-      <c r="G23" s="3">
-        <v>37200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-53500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-28600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-14900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3200</v>
       </c>
-      <c r="G24" s="3">
-        <v>2600</v>
-      </c>
       <c r="H24" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>3100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39400</v>
       </c>
-      <c r="G26" s="3">
-        <v>34600</v>
-      </c>
       <c r="H26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-43500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-27800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>3100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39400</v>
       </c>
-      <c r="G27" s="3">
-        <v>34600</v>
-      </c>
       <c r="H27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-43500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-27800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1270,16 +1328,19 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E29" s="3">
         <v>417100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1288,10 +1349,10 @@
         <v>24</v>
       </c>
       <c r="H29" s="3">
+        <v>31100</v>
+      </c>
+      <c r="I29" s="3">
         <v>51300</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>420200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-27800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>420200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-27800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,37 +1619,41 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E41" s="3">
         <v>263900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>91100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>171300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>185500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>233000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,37 +1681,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E43" s="3">
         <v>44800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>49500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,66 +1745,75 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E45" s="3">
         <v>15000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E46" s="3">
         <v>323800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>156900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>230600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>215400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>239900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>293500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>256600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,66 +1841,75 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E48" s="3">
         <v>72400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>94800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>95600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>93800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>94100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>89800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>86200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>527400</v>
+      </c>
+      <c r="E49" s="3">
         <v>532300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>743400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>746400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>751700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>757100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>759300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>763600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>770100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E52" s="3">
         <v>35100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>26500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>847300</v>
+      </c>
+      <c r="E54" s="3">
         <v>963500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1025600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1099100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1084000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1071900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1103500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1156900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1119100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,48 +2095,52 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>1800</v>
@@ -2023,124 +2157,139 @@
       <c r="K58" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E59" s="3">
         <v>134800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>79900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>103600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>108400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E60" s="3">
         <v>142300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>62600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>88600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>115700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>111700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>114300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>120300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>157700</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>521100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>553500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>553300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>553100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>553000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>552800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>552700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E62" s="3">
         <v>78000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>67500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>66100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>77100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>101200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>379200</v>
+      </c>
+      <c r="E66" s="3">
         <v>220300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>654000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>709600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>735100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>730300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>744300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>774400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>774500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-827900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-829500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1197600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1175700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1215200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1249800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1226100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1198300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1229900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E76" s="3">
         <v>743200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>371600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>389500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>348900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>341600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>359100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>382500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>420200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-27800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E83" s="3">
         <v>37700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>43400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>106600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>47300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-22900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>43500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14900</v>
+        <v>-2500</v>
       </c>
       <c r="E91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-7100</v>
-      </c>
       <c r="G91" s="3">
-        <v>-4700</v>
+        <v>-7900</v>
       </c>
       <c r="H91" s="3">
-        <v>-21000</v>
+        <v>-3800</v>
       </c>
       <c r="I91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E94" s="3">
         <v>665800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-609200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-32500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="E102" s="3">
         <v>163300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-80200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-47500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>39000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVTA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E8" s="3">
         <v>178000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>666500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>171700</v>
       </c>
-      <c r="G8" s="3">
-        <v>256900</v>
-      </c>
       <c r="H8" s="3">
+        <v>162700</v>
+      </c>
+      <c r="I8" s="3">
         <v>166400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>658200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>174200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>254300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>278400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E9" s="3">
         <v>108300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>444900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109200</v>
       </c>
-      <c r="G9" s="3">
-        <v>120500</v>
-      </c>
       <c r="H9" s="3">
+        <v>121300</v>
+      </c>
+      <c r="I9" s="3">
         <v>130600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>469700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>123000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>114200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>76100</v>
+      </c>
+      <c r="E10" s="3">
         <v>69700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>221600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62500</v>
       </c>
-      <c r="G10" s="3">
-        <v>136400</v>
-      </c>
       <c r="H10" s="3">
+        <v>41400</v>
+      </c>
+      <c r="I10" s="3">
         <v>35800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>188500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>51200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>136000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7500</v>
       </c>
-      <c r="G12" s="3">
-        <v>8600</v>
-      </c>
       <c r="H12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>16700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,72 +907,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>32800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E15" s="3">
         <v>9900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>37700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>10200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9600</v>
       </c>
       <c r="H15" s="3">
         <v>9100</v>
       </c>
       <c r="I15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J15" s="3">
         <v>37300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>176600</v>
+      </c>
+      <c r="E17" s="3">
         <v>179600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>677800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>185500</v>
       </c>
-      <c r="G17" s="3">
-        <v>206100</v>
-      </c>
       <c r="H17" s="3">
+        <v>165700</v>
+      </c>
+      <c r="I17" s="3">
         <v>179800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>711300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>212700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13800</v>
       </c>
-      <c r="G18" s="3">
-        <v>50800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-13400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-53100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>41600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,168 +1076,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-500</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E21" s="3">
         <v>10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>26100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-2000</v>
-      </c>
       <c r="G21" s="3">
-        <v>64000</v>
+        <v>2600</v>
       </c>
       <c r="H21" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-4300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-15800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9200</v>
       </c>
-      <c r="G22" s="3">
-        <v>7700</v>
-      </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>7700</v>
       </c>
       <c r="K22" s="3">
         <v>7700</v>
       </c>
       <c r="L22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="M22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-23600</v>
       </c>
-      <c r="G23" s="3">
-        <v>42700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-53500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-28600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>33600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-14900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
-        <v>3200</v>
-      </c>
       <c r="H24" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-17000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21800</v>
       </c>
-      <c r="G26" s="3">
-        <v>39400</v>
-      </c>
       <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
         <v>3600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-43500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-27800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21800</v>
       </c>
-      <c r="G27" s="3">
-        <v>39400</v>
-      </c>
       <c r="H27" s="3">
+        <v>800</v>
+      </c>
+      <c r="I27" s="3">
         <v>3600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-43500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-27800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,31 +1389,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
         <v>1900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>417100</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="3">
+        <v>38600</v>
+      </c>
+      <c r="I29" s="3">
         <v>31100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>51300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>500</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>420200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-27800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>420200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-27800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1706,44 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E41" s="3">
         <v>145000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>263900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>91100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>171300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>185500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>233000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,40 +1774,46 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E43" s="3">
         <v>46800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>46200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,72 +1844,81 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E45" s="3">
         <v>19800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E46" s="3">
         <v>211500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>323800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>156900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>230600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>215400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>239900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>293500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>256600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,72 +1949,81 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>69900</v>
+      </c>
+      <c r="E48" s="3">
         <v>71000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>94800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>95600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>93800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>94100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>89800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>86200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>525400</v>
+      </c>
+      <c r="E49" s="3">
         <v>527400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>532300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>743400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>746400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>751700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>757100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>759300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>763600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>770100</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E52" s="3">
         <v>37500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>35100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>26500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>821600</v>
+      </c>
+      <c r="E54" s="3">
         <v>847300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>963500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1025600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1099100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1084000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1071900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1103500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1156900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1119100</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,54 +2226,58 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E58" s="3">
         <v>5300</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
@@ -2160,136 +2294,151 @@
       <c r="L58" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66700</v>
+      </c>
+      <c r="E59" s="3">
         <v>137000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>134800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>58800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>79900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>90000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>103600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>108400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E60" s="3">
         <v>146600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>142300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>62600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>88600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>115700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>111700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>114300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>120300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E61" s="3">
         <v>157700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>521100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>553500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>553300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>553100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>553000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>552800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>552700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>80100</v>
+      </c>
+      <c r="E62" s="3">
         <v>74900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>78000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>67500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>66100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>77100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>410400</v>
+      </c>
+      <c r="E66" s="3">
         <v>379200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>220300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>654000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>709600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>735100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>730300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>744300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>774400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>774500</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-824300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-827900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-829500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1197600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1175700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1215200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1249800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1226100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1198300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1229900</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>411200</v>
+      </c>
+      <c r="E76" s="3">
         <v>468000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>743200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>371600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>389500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>348900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>341600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>359100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>382500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>420200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-27800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3031,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E83" s="3">
         <v>9900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>37700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>43400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3239,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>106600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>47300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>43500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3291,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="F91" s="3">
-        <v>-5400</v>
-      </c>
       <c r="G91" s="3">
-        <v>-7900</v>
+        <v>-8100</v>
       </c>
       <c r="H91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3394,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>665800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3584,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>47400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-117600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-609200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-32500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-14200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3654,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-119000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>163300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-80200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-47500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>39000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVTA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVTA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>AVTA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E8" s="3">
         <v>186900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>178000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>666500</v>
       </c>
-      <c r="G8" s="3">
-        <v>171700</v>
-      </c>
       <c r="H8" s="3">
+        <v>165000</v>
+      </c>
+      <c r="I8" s="3">
         <v>162700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>166400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>658200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>174200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>254300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>278400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117700</v>
+      </c>
+      <c r="E9" s="3">
         <v>110800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>108300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>444900</v>
       </c>
-      <c r="G9" s="3">
-        <v>109200</v>
-      </c>
       <c r="H9" s="3">
+        <v>109700</v>
+      </c>
+      <c r="I9" s="3">
         <v>121300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>130600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>469700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>123000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>114200</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E10" s="3">
         <v>76100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>221600</v>
       </c>
-      <c r="G10" s="3">
-        <v>62500</v>
-      </c>
       <c r="H10" s="3">
+        <v>55300</v>
+      </c>
+      <c r="I10" s="3">
         <v>41400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>35800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>188500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>136000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>164200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,43 +853,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>8700</v>
       </c>
-      <c r="G12" s="3">
-        <v>7500</v>
-      </c>
       <c r="H12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>16700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>32800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E15" s="3">
         <v>9800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>37700</v>
       </c>
-      <c r="G15" s="3">
-        <v>10200</v>
-      </c>
       <c r="H15" s="3">
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="I15" s="3">
         <v>9100</v>
       </c>
       <c r="J15" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K15" s="3">
         <v>37300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E17" s="3">
         <v>176600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>179600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>677800</v>
       </c>
-      <c r="G17" s="3">
-        <v>185500</v>
-      </c>
       <c r="H17" s="3">
+        <v>166100</v>
+      </c>
+      <c r="I17" s="3">
         <v>165700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>179800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>711300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>212700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>241200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>10300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-11300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-13800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-13400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-53100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-20300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>37200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>20400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>26100</v>
       </c>
-      <c r="G21" s="3">
-        <v>2600</v>
-      </c>
       <c r="H21" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I21" s="3">
         <v>6000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-15800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>52400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>47300</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>9200</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>7700</v>
       </c>
       <c r="L22" s="3">
         <v>7700</v>
       </c>
       <c r="M22" s="3">
+        <v>7700</v>
+      </c>
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>5700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-23600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-53500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>33600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-14900</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H24" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I24" s="3">
         <v>-4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-17000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-21800</v>
-      </c>
       <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-27800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-21800</v>
-      </c>
       <c r="H27" s="3">
+        <v>300</v>
+      </c>
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-27800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1392,34 +1450,37 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>1900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>417100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H29" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I29" s="3">
         <v>38600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>31100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>51300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>600</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>420200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>39400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-27800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>420200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>39400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-27800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>106400</v>
+      </c>
+      <c r="E41" s="3">
         <v>109800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>263900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>171300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>185500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>233000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>194000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,43 +1867,49 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E43" s="3">
         <v>47100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>46800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>43400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>50600</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,78 +1943,87 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E45" s="3">
         <v>30100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>15000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>17700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E46" s="3">
         <v>187000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>211500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>323800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>156900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>230600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>215400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>239900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>293500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>256600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,78 +2057,87 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E48" s="3">
         <v>69900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>71000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>94800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>95600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>93800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>94100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>89800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>86200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>87000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>523100</v>
+      </c>
+      <c r="E49" s="3">
         <v>525400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>527400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>532300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>743400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>746400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>751700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>757100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>759300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>763600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>770100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E52" s="3">
         <v>39300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>35100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>26500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>23000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>825700</v>
+      </c>
+      <c r="E54" s="3">
         <v>821600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>847300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>963500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1025600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1099100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1084000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1071900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1103500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1156900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1119100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,60 +2357,64 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E58" s="3">
         <v>10100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>1800</v>
@@ -2297,148 +2431,163 @@
       <c r="M58" s="3">
         <v>1800</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E59" s="3">
         <v>66700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>137000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>134800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>58800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>79900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>90000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>103600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>108400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>89800</v>
+      </c>
+      <c r="E60" s="3">
         <v>79000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>146600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>142300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>62600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>88600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>115700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>111700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>114300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>120300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>123900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>248400</v>
+      </c>
+      <c r="E61" s="3">
         <v>251400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>157700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>521100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>553500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>553300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>553100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>553000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>552800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>552700</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E62" s="3">
         <v>80100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>74900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>78000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>70300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>67500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>66100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>65500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>77100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>97900</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>422000</v>
+      </c>
+      <c r="E66" s="3">
         <v>410400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>379200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>220300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>654000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>709600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>735100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>730300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>744300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>774400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>774500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-825800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-824300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-827900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-829500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1197600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1175700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1215200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1249800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1226100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1198300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1229900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>403700</v>
+      </c>
+      <c r="E76" s="3">
         <v>411200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>468000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>743200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>371600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>389500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>348900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>341600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>359100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>382500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>344700</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>420200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>39400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-27800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27600</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E83" s="3">
         <v>9800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>37700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>11500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>11300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>43400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-76200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-23700</v>
-      </c>
       <c r="H89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I89" s="3">
         <v>38300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>47300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>43500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>53700</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>665800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3830,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E100" s="3">
         <v>47400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-117600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-609200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-49200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-3100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-32500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3906,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-35200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-119000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>163300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-80200</v>
-      </c>
       <c r="H102" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="I102" s="3">
         <v>27100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-47500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>39000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43300</v>
       </c>
     </row>
